--- a/data/case1/11/P1_2.xlsx
+++ b/data/case1/11/P1_2.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.40579561871882674</v>
+        <v>0.34985991912974157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992174204522</v>
+        <v>-0.092103155724920782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.058304640041844991</v>
+        <v>-0.0089999997585223923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999799737537</v>
+        <v>-0.011999999936993078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992190080675</v>
+        <v>-0.0059999997639712532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999202856543</v>
+        <v>-0.0059999997590907128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999906031924</v>
+        <v>-0.019999999712835503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999053555761</v>
+        <v>0.00039299887388111188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999991870620661</v>
+        <v>-0.0059999997572131036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999991819097431</v>
+        <v>-0.0059999997566180241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999991963585728</v>
+        <v>-0.0044999997614993958</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999991806924946</v>
+        <v>-0.005999999756632679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.026405965875071047</v>
+        <v>-0.0059999997570825414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999114021165</v>
+        <v>-0.011999999737756006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999991710757428</v>
+        <v>0.043602941198907175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999991683477027</v>
+        <v>-0.0059999997573352282</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999991648131967</v>
+        <v>-0.00599999975626897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999133977532</v>
+        <v>-0.0089999997461829295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.089721543733642495</v>
+        <v>-0.0089999997641170282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999992176608146</v>
+        <v>-0.0089999997618992467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.008999999216547927</v>
+        <v>-0.0089999997615421989</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999992157654418</v>
+        <v>-0.0089999997612908444</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999991960443282</v>
+        <v>-0.008999999756190924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998852713993</v>
+        <v>-0.041999999643870467</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0419999988460944</v>
+        <v>-0.041999999641814334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999992036274818</v>
+        <v>-0.0059999997585933329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999992031021243</v>
+        <v>-0.0059999997579582853</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999992016477321</v>
+        <v>-0.0059999997553568107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.060138424025693027</v>
+        <v>-0.011999999734022992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999055800188</v>
+        <v>-0.019999999707202232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01499999909782801</v>
+        <v>0.025120672619896922</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999036596328</v>
+        <v>-0.02099999970339983</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999991862609292</v>
+        <v>-0.0059999997524515791</v>
       </c>
     </row>
   </sheetData>
